--- a/biology/Médecine/Méthacrylate_de_méthyle_(maladie_professionnelle)/Méthacrylate_de_méthyle_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Méthacrylate_de_méthyle_(maladie_professionnelle)/Méthacrylate_de_méthyle_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thacrylate_de_m%C3%A9thyle_(maladie_professionnelle)</t>
+          <t>Méthacrylate_de_méthyle_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une intoxication au méthacrylate de méthyle peut être reconnue comme maladie professionnelle dans certains pays, sous conditions.
 Cet article relève du domaine de la législation sur la protection sociale et a un caractère davantage juridique que médical.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9thacrylate_de_m%C3%A9thyle_(maladie_professionnelle)</t>
+          <t>Méthacrylate_de_méthyle_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Données professionnelles
-Le méthacrylate de méthyle est le monomère du polyméthacrylate de méthyle (Lucite, Plexiglas, Altuglas, Perspex).
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Méthacrylate_de_méthyle_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9thacrylate_de_m%C3%A9thyle_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le méthacrylate de méthyle est le monomère du polyméthacrylate de méthyle (Lucite, Plexiglas, Altuglas, Perspex).
 C’est un composé organique dont la formule chimique est la suivante :
 CH  2  = C (CH  3 ) CO  2  CH  3 .
 Cet ester méthylique de l'acide méthacrylique (MMA) est un monomère qui se présente sous la forme d’un liquide incolore utilisé pour la fabrication de verres transparents et de plastiques en polyméthacrylate de méthyle (PMMA).
@@ -524,8 +577,43 @@
 Les polymères du méthacrylate de méthyle et les copolymères sont utilisés pour fabriquer des peintures à l'eau ils servent également à la formulation d’adhésifs.
 Une application récente est l'utilisation de films qui pour empêcher la lumière des écrans LCD d'ordinateurs et de téléviseurs de diffuser de manière non directionnelle.
 Le méthacrylate de méthyle est également utilisé pour préserver de la corrosion les moulages anatomiques d’organes, comme le cœur et les artères coronaires.
-Données médicales
-Le méthacrylate de méthyle est responsable de manifestations allergiques cutanées et respiratoires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Méthacrylate_de_méthyle_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9thacrylate_de_m%C3%A9thyle_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le méthacrylate de méthyle est responsable de manifestations allergiques cutanées et respiratoires.
 </t>
         </is>
       </c>
